--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/Sprint3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616B20B6-16AF-434D-BA3C-48939A980863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AA9D84-A604-F643-BFF7-8DCBE2E01DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="324">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1018,6 +1016,36 @@
   </si>
   <si>
     <t>28-34</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>US31()</t>
+  </si>
+  <si>
+    <t>US32()</t>
+  </si>
+  <si>
+    <t>test_userstory31()</t>
+  </si>
+  <si>
+    <t>test_userstory32()</t>
+  </si>
+  <si>
+    <t>971-993</t>
+  </si>
+  <si>
+    <t>999-1019</t>
+  </si>
+  <si>
+    <t>135-138</t>
+  </si>
+  <si>
+    <t>140-144</t>
+  </si>
+  <si>
+    <t>commit without discussing</t>
   </si>
 </sst>
 </file>
@@ -1644,6 +1672,9 @@
                 <c:pt idx="3">
                   <c:v>42458</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42478</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1664,6 +1695,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3294,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:D34"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3901,7 +3935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -4096,7 +4130,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4223,6 +4257,18 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>278</v>
+      </c>
+      <c r="B6" s="13">
+        <v>42478</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="35">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5210,8 +5256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="B16:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5699,16 +5745,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -5769,10 +5818,40 @@
         <v>182</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="E2">
         <v>50</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" t="s">
+        <v>315</v>
+      </c>
+      <c r="L2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -5785,11 +5864,41 @@
       <c r="C3" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D3" t="s">
-        <v>292</v>
+      <c r="D3" s="32" t="s">
+        <v>314</v>
       </c>
       <c r="E3">
         <v>50</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" t="s">
+        <v>316</v>
+      </c>
+      <c r="L3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -5808,6 +5917,12 @@
       <c r="E4">
         <v>50</v>
       </c>
+      <c r="J4" t="s">
+        <v>241</v>
+      </c>
+      <c r="M4" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
@@ -5825,6 +5940,12 @@
       <c r="E5">
         <v>50</v>
       </c>
+      <c r="J5" t="s">
+        <v>241</v>
+      </c>
+      <c r="M5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
@@ -5842,6 +5963,12 @@
       <c r="E6">
         <v>50</v>
       </c>
+      <c r="J6" t="s">
+        <v>241</v>
+      </c>
+      <c r="M6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
@@ -5859,6 +5986,12 @@
       <c r="E7">
         <v>50</v>
       </c>
+      <c r="J7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M7" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
@@ -5876,6 +6009,12 @@
       <c r="E8">
         <v>50</v>
       </c>
+      <c r="J8" t="s">
+        <v>241</v>
+      </c>
+      <c r="M8" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
@@ -5893,8 +6032,59 @@
       <c r="E9">
         <v>50</v>
       </c>
+      <c r="J9" t="s">
+        <v>241</v>
+      </c>
+      <c r="M9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C19:G19"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5904,8 +6094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:B40"/>
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Github repositories/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AA9D84-A604-F643-BFF7-8DCBE2E01DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C64A20-13BB-8D49-8049-F248ACF730C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -3328,7 +3330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4765,7 +4767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C20" sqref="B14:G20"/>
     </sheetView>
   </sheetViews>
@@ -5747,7 +5749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -6094,8 +6096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Github repositories/CS-555-Agile_Project_Team/Sprint4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C64A20-13BB-8D49-8049-F248ACF730C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E43B5-128F-D544-A89F-75C0188E4C57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="460" windowWidth="17220" windowHeight="15800" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="330">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1048,6 +1046,24 @@
   </si>
   <si>
     <t>commit without discussing</t>
+  </si>
+  <si>
+    <t>US25()</t>
+  </si>
+  <si>
+    <t>US26()</t>
+  </si>
+  <si>
+    <t>test_userstory25()</t>
+  </si>
+  <si>
+    <t>test_userstory26()</t>
+  </si>
+  <si>
+    <t>150-153</t>
+  </si>
+  <si>
+    <t>155-158</t>
   </si>
 </sst>
 </file>
@@ -3330,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A24" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3906,7 +3922,7 @@
         <v>187</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -3923,7 +3939,7 @@
         <v>187</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5749,8 +5765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6006,16 +6022,37 @@
         <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="E8">
         <v>50</v>
       </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
       <c r="J8" t="s">
         <v>241</v>
       </c>
+      <c r="K8" t="s">
+        <v>324</v>
+      </c>
       <c r="M8" t="s">
         <v>212</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -6029,16 +6066,37 @@
         <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="E9">
         <v>50</v>
       </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>49</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>206</v>
+      </c>
       <c r="J9" t="s">
         <v>241</v>
       </c>
+      <c r="K9" t="s">
+        <v>325</v>
+      </c>
       <c r="M9" t="s">
         <v>212</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -6096,7 +6154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/Sprint4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E43B5-128F-D544-A89F-75C0188E4C57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4AE2F9-9929-2A4C-B23A-4F433EF11DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="460" windowWidth="17220" windowHeight="15800" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="460" windowWidth="21360" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="339">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1064,6 +1066,33 @@
   </si>
   <si>
     <t>155-158</t>
+  </si>
+  <si>
+    <t>us28()</t>
+  </si>
+  <si>
+    <t>us27()</t>
+  </si>
+  <si>
+    <t>384-402</t>
+  </si>
+  <si>
+    <t>360-373</t>
+  </si>
+  <si>
+    <t>test_userstory27()</t>
+  </si>
+  <si>
+    <t>test_userstory28()</t>
+  </si>
+  <si>
+    <t>36-38</t>
+  </si>
+  <si>
+    <t>40-42</t>
+  </si>
+  <si>
+    <t>667-696</t>
   </si>
 </sst>
 </file>
@@ -3346,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3779,7 +3808,7 @@
         <v>186</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -3796,7 +3825,7 @@
         <v>186</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -4147,7 +4176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -5765,8 +5794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="M1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5976,16 +6005,40 @@
         <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
       <c r="J6" t="s">
         <v>241</v>
       </c>
+      <c r="K6" t="s">
+        <v>331</v>
+      </c>
+      <c r="L6" t="s">
+        <v>333</v>
+      </c>
       <c r="M6" t="s">
         <v>212</v>
+      </c>
+      <c r="N6" t="s">
+        <v>334</v>
+      </c>
+      <c r="O6" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -5999,16 +6052,40 @@
         <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>50</v>
       </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
       <c r="J7" t="s">
         <v>241</v>
       </c>
+      <c r="K7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" t="s">
+        <v>332</v>
+      </c>
       <c r="M7" t="s">
         <v>212</v>
+      </c>
+      <c r="N7" t="s">
+        <v>335</v>
+      </c>
+      <c r="O7" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -6045,6 +6122,9 @@
       <c r="K8" t="s">
         <v>324</v>
       </c>
+      <c r="L8" t="s">
+        <v>268</v>
+      </c>
       <c r="M8" t="s">
         <v>212</v>
       </c>
@@ -6088,6 +6168,9 @@
       </c>
       <c r="K9" t="s">
         <v>325</v>
+      </c>
+      <c r="L9" t="s">
+        <v>338</v>
       </c>
       <c r="M9" t="s">
         <v>212</v>
@@ -6155,7 +6238,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4AE2F9-9929-2A4C-B23A-4F433EF11DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50621B9D-4E86-ED4E-A2AD-9D1B34C98121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="460" windowWidth="21360" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="460" windowWidth="21360" windowHeight="15720" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1071,9 +1071,6 @@
     <t>us28()</t>
   </si>
   <si>
-    <t>us27()</t>
-  </si>
-  <si>
     <t>384-402</t>
   </si>
   <si>
@@ -1093,6 +1090,9 @@
   </si>
   <si>
     <t>667-696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us27() </t>
   </si>
 </sst>
 </file>
@@ -4176,7 +4176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -5794,8 +5794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6026,19 +6026,19 @@
         <v>241</v>
       </c>
       <c r="K6" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M6" t="s">
         <v>212</v>
       </c>
       <c r="N6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -6064,7 +6064,7 @@
         <v>18</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>206</v>
@@ -6076,16 +6076,16 @@
         <v>330</v>
       </c>
       <c r="L7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M7" t="s">
         <v>212</v>
       </c>
       <c r="N7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -6170,7 +6170,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M9" t="s">
         <v>212</v>

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AA9D84-A604-F643-BFF7-8DCBE2E01DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18400742-66C4-7E43-BA20-FDD8E0757253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3328,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3474,7 +3474,7 @@
         <v>182</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3491,7 +3491,7 @@
         <v>182</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -5747,7 +5747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18400742-66C4-7E43-BA20-FDD8E0757253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9D5A2E-0628-E94C-ADB8-6C2B1E4F6869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1239,7 +1239,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1302,6 +1302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5748,7 +5749,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5817,7 +5818,7 @@
       <c r="C2" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="40" t="s">
         <v>314</v>
       </c>
       <c r="E2">
@@ -5864,7 +5865,7 @@
       <c r="C3" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="40" t="s">
         <v>314</v>
       </c>
       <c r="E3">

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9D5A2E-0628-E94C-ADB8-6C2B1E4F6869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18400742-66C4-7E43-BA20-FDD8E0757253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1239,7 +1239,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1302,7 +1302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5749,7 +5748,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5818,7 +5817,7 @@
       <c r="C2" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="32" t="s">
         <v>314</v>
       </c>
       <c r="E2">
@@ -5865,7 +5864,7 @@
       <c r="C3" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="32" t="s">
         <v>314</v>
       </c>
       <c r="E3">

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18400742-66C4-7E43-BA20-FDD8E0757253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AA9D84-A604-F643-BFF7-8DCBE2E01DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3328,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3474,7 +3474,7 @@
         <v>182</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3491,7 +3491,7 @@
         <v>182</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -5747,7 +5747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AA9D84-A604-F643-BFF7-8DCBE2E01DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50621B9D-4E86-ED4E-A2AD-9D1B34C98121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="460" windowWidth="21360" windowHeight="15720" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="339">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1046,6 +1048,51 @@
   </si>
   <si>
     <t>commit without discussing</t>
+  </si>
+  <si>
+    <t>US25()</t>
+  </si>
+  <si>
+    <t>US26()</t>
+  </si>
+  <si>
+    <t>test_userstory25()</t>
+  </si>
+  <si>
+    <t>test_userstory26()</t>
+  </si>
+  <si>
+    <t>150-153</t>
+  </si>
+  <si>
+    <t>155-158</t>
+  </si>
+  <si>
+    <t>us28()</t>
+  </si>
+  <si>
+    <t>384-402</t>
+  </si>
+  <si>
+    <t>360-373</t>
+  </si>
+  <si>
+    <t>test_userstory27()</t>
+  </si>
+  <si>
+    <t>test_userstory28()</t>
+  </si>
+  <si>
+    <t>36-38</t>
+  </si>
+  <si>
+    <t>40-42</t>
+  </si>
+  <si>
+    <t>667-696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us27() </t>
   </si>
 </sst>
 </file>
@@ -3328,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3761,7 +3808,7 @@
         <v>186</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -3778,7 +3825,7 @@
         <v>186</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -3904,7 +3951,7 @@
         <v>187</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -3921,7 +3968,7 @@
         <v>187</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4765,7 +4812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C20" sqref="B14:G20"/>
     </sheetView>
   </sheetViews>
@@ -5747,8 +5794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5958,16 +6005,40 @@
         <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
       <c r="J6" t="s">
         <v>241</v>
       </c>
+      <c r="K6" t="s">
+        <v>338</v>
+      </c>
+      <c r="L6" t="s">
+        <v>332</v>
+      </c>
       <c r="M6" t="s">
         <v>212</v>
+      </c>
+      <c r="N6" t="s">
+        <v>333</v>
+      </c>
+      <c r="O6" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -5981,16 +6052,40 @@
         <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>50</v>
       </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
       <c r="J7" t="s">
         <v>241</v>
       </c>
+      <c r="K7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" t="s">
+        <v>331</v>
+      </c>
       <c r="M7" t="s">
         <v>212</v>
+      </c>
+      <c r="N7" t="s">
+        <v>334</v>
+      </c>
+      <c r="O7" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -6004,16 +6099,40 @@
         <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="E8">
         <v>50</v>
       </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
       <c r="J8" t="s">
         <v>241</v>
       </c>
+      <c r="K8" t="s">
+        <v>324</v>
+      </c>
+      <c r="L8" t="s">
+        <v>268</v>
+      </c>
       <c r="M8" t="s">
         <v>212</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -6027,16 +6146,40 @@
         <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="E9">
         <v>50</v>
       </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>49</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>206</v>
+      </c>
       <c r="J9" t="s">
         <v>241</v>
       </c>
+      <c r="K9" t="s">
+        <v>325</v>
+      </c>
+      <c r="L9" t="s">
+        <v>337</v>
+      </c>
       <c r="M9" t="s">
         <v>212</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -6095,7 +6238,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/Sprint4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50621B9D-4E86-ED4E-A2AD-9D1B34C98121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FAF5E7-B182-A94B-8FC5-67B154E867A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6340" yWindow="460" windowWidth="21360" windowHeight="15720" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1286,7 +1286,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1349,6 +1349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5795,7 +5796,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5864,7 +5865,7 @@
       <c r="C2" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="40" t="s">
         <v>314</v>
       </c>
       <c r="E2">
@@ -5911,7 +5912,7 @@
       <c r="C3" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="40" t="s">
         <v>314</v>
       </c>
       <c r="E3">

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Github repositories/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FAF5E7-B182-A94B-8FC5-67B154E867A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF639F10-B660-0248-8AE2-FFBE1CF420A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6340" yWindow="460" windowWidth="21360" windowHeight="15720" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="345">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -661,9 +661,6 @@
     <t>spatidar@stevens.edu</t>
   </si>
   <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
     <t>pnair3@stevens.edu</t>
   </si>
   <si>
@@ -954,9 +951,6 @@
     <t>76-79</t>
   </si>
   <si>
-    <t>incomplete</t>
-  </si>
-  <si>
     <t>520-539</t>
   </si>
   <si>
@@ -1093,6 +1087,30 @@
   </si>
   <si>
     <t xml:space="preserve">us27() </t>
+  </si>
+  <si>
+    <t>US29()</t>
+  </si>
+  <si>
+    <t>US30()</t>
+  </si>
+  <si>
+    <t>886-899</t>
+  </si>
+  <si>
+    <t>905-923</t>
+  </si>
+  <si>
+    <t>test_userstory29()</t>
+  </si>
+  <si>
+    <t>test_userstory30()</t>
+  </si>
+  <si>
+    <t>103-112</t>
+  </si>
+  <si>
+    <t>114-126</t>
   </si>
 </sst>
 </file>
@@ -1343,13 +1361,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3285,10 +3303,10 @@
         <v>184</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -3305,7 +3323,7 @@
         <v>194</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3319,10 +3337,10 @@
         <v>193</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3336,10 +3354,10 @@
         <v>192</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3347,12 +3365,12 @@
         <v>34</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E10" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3376,8 +3394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3420,7 +3438,7 @@
         <v>182</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3437,7 +3455,7 @@
         <v>182</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -3454,7 +3472,7 @@
         <v>182</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3471,7 +3489,7 @@
         <v>182</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3488,7 +3506,7 @@
         <v>182</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -3505,7 +3523,7 @@
         <v>182</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -3522,7 +3540,7 @@
         <v>182</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3539,7 +3557,7 @@
         <v>182</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -3563,7 +3581,7 @@
         <v>185</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3580,7 +3598,7 @@
         <v>185</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -3597,7 +3615,7 @@
         <v>185</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -3614,7 +3632,7 @@
         <v>185</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -3631,7 +3649,7 @@
         <v>185</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3648,7 +3666,7 @@
         <v>185</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -3665,7 +3683,7 @@
         <v>185</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -3682,7 +3700,7 @@
         <v>185</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -3706,7 +3724,7 @@
         <v>186</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -3723,7 +3741,7 @@
         <v>186</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -3740,7 +3758,7 @@
         <v>186</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -3757,7 +3775,7 @@
         <v>186</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F23" s="32"/>
     </row>
@@ -3775,7 +3793,7 @@
         <v>186</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -3792,7 +3810,7 @@
         <v>186</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -3809,7 +3827,7 @@
         <v>186</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -3826,7 +3844,7 @@
         <v>186</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -3850,7 +3868,7 @@
         <v>187</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -3867,7 +3885,7 @@
         <v>187</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -3884,7 +3902,7 @@
         <v>187</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -3901,7 +3919,7 @@
         <v>187</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -3918,7 +3936,7 @@
         <v>187</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -3935,7 +3953,7 @@
         <v>187</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -3952,7 +3970,7 @@
         <v>187</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -3969,7 +3987,7 @@
         <v>187</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4232,7 +4250,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="34">
         <v>42427</v>
@@ -4256,7 +4274,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="34">
         <v>42444</v>
@@ -4280,7 +4298,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="13">
         <v>42458</v>
@@ -4304,7 +4322,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6" s="13">
         <v>42478</v>
@@ -4412,7 +4430,7 @@
         <v>182</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2">
         <v>70</v>
@@ -4427,25 +4445,25 @@
         <v>30</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>207</v>
-      </c>
       <c r="K2" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -4459,7 +4477,7 @@
         <v>182</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3">
         <v>70</v>
@@ -4474,25 +4492,25 @@
         <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>207</v>
-      </c>
       <c r="K3" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -4506,7 +4524,7 @@
         <v>185</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4">
         <v>70</v>
@@ -4521,25 +4539,25 @@
         <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>208</v>
-      </c>
       <c r="L4" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M4" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="N4" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="O4" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -4553,7 +4571,7 @@
         <v>185</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>70</v>
@@ -4568,25 +4586,25 @@
         <v>40</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>207</v>
-      </c>
       <c r="K5" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L5" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="M5" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="M5" s="17" t="s">
-        <v>212</v>
-      </c>
       <c r="N5" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -4600,7 +4618,7 @@
         <v>186</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -4615,25 +4633,25 @@
         <v>20</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>207</v>
-      </c>
       <c r="K6" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -4647,7 +4665,7 @@
         <v>186</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7">
         <v>70</v>
@@ -4662,25 +4680,25 @@
         <v>30</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>207</v>
-      </c>
       <c r="K7" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L7" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="N7" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="M7" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>237</v>
-      </c>
       <c r="O7" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -4694,7 +4712,7 @@
         <v>187</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -4709,25 +4727,25 @@
         <v>30</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>207</v>
-      </c>
       <c r="K8" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -4741,7 +4759,7 @@
         <v>187</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9">
         <v>70</v>
@@ -4756,25 +4774,25 @@
         <v>50</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J9" s="17" t="s">
-        <v>207</v>
-      </c>
       <c r="K9" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4791,7 +4809,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="14" x14ac:dyDescent="0.15">
@@ -4799,7 +4817,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4883,7 +4901,7 @@
         <v>182</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -4898,25 +4916,25 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -4930,7 +4948,7 @@
         <v>182</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -4945,25 +4963,25 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -4977,7 +4995,7 @@
         <v>185</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -4992,25 +5010,25 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" t="s">
+        <v>260</v>
+      </c>
+      <c r="M4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="L4" t="s">
-        <v>261</v>
-      </c>
-      <c r="M4" t="s">
-        <v>212</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>259</v>
-      </c>
       <c r="O4" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -5024,7 +5042,7 @@
         <v>185</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -5039,25 +5057,25 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -5071,7 +5089,7 @@
         <v>186</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -5086,25 +5104,25 @@
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K6" t="s">
         <v>241</v>
       </c>
-      <c r="K6" t="s">
-        <v>242</v>
-      </c>
       <c r="L6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -5118,7 +5136,7 @@
         <v>186</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -5133,25 +5151,25 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -5165,7 +5183,7 @@
         <v>187</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8">
         <v>60</v>
@@ -5180,25 +5198,25 @@
         <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -5212,7 +5230,7 @@
         <v>187</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9">
         <v>60</v>
@@ -5227,25 +5245,25 @@
         <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -5260,13 +5278,13 @@
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
@@ -5281,13 +5299,13 @@
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
+      <c r="C20" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5375,7 +5393,7 @@
         <v>182</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2">
         <v>40</v>
@@ -5390,25 +5408,25 @@
         <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L2" t="s">
         <v>297</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="M2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="23" t="s">
         <v>301</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -5422,7 +5440,7 @@
         <v>182</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -5437,25 +5455,25 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L3" t="s">
         <v>298</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="M3" t="s">
-        <v>212</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>302</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -5469,7 +5487,7 @@
         <v>185</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -5484,25 +5502,25 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L4" t="s">
+        <v>288</v>
+      </c>
+      <c r="M4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-      <c r="M4" t="s">
-        <v>212</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>286</v>
-      </c>
       <c r="O4" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -5516,7 +5534,7 @@
         <v>185</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -5531,25 +5549,25 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L5" t="s">
+        <v>289</v>
+      </c>
+      <c r="M5" t="s">
+        <v>211</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="O5" s="23" t="s">
         <v>290</v>
-      </c>
-      <c r="M5" t="s">
-        <v>212</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -5563,7 +5581,7 @@
         <v>186</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -5578,25 +5596,25 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K6" t="s">
+        <v>304</v>
+      </c>
+      <c r="L6" t="s">
         <v>306</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>211</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="M6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>310</v>
-      </c>
       <c r="O6" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -5610,7 +5628,7 @@
         <v>186</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -5625,25 +5643,25 @@
         <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L7" t="s">
         <v>307</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N7" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="M7" t="s">
-        <v>212</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>311</v>
-      </c>
       <c r="O7" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -5657,7 +5675,7 @@
         <v>187</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -5672,25 +5690,25 @@
         <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L8" t="s">
+        <v>291</v>
+      </c>
+      <c r="M8" t="s">
+        <v>211</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="O8" s="23" t="s">
         <v>293</v>
-      </c>
-      <c r="M8" t="s">
-        <v>212</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -5704,7 +5722,7 @@
         <v>187</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -5719,25 +5737,25 @@
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L9" t="s">
+        <v>292</v>
+      </c>
+      <c r="M9" t="s">
+        <v>211</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="M9" t="s">
-        <v>212</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -5752,13 +5770,13 @@
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
@@ -5773,13 +5791,13 @@
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
+      <c r="C20" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5795,8 +5813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5865,8 +5883,8 @@
       <c r="C2" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>314</v>
+      <c r="D2" s="38" t="s">
+        <v>312</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -5881,25 +5899,25 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K2" t="s">
+        <v>313</v>
+      </c>
+      <c r="L2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" s="23" t="s">
         <v>319</v>
-      </c>
-      <c r="M2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -5912,8 +5930,8 @@
       <c r="C3" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>314</v>
+      <c r="D3" s="38" t="s">
+        <v>312</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -5928,25 +5946,25 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K3" t="s">
+        <v>314</v>
+      </c>
+      <c r="L3" t="s">
+        <v>318</v>
+      </c>
+      <c r="M3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" s="23" t="s">
         <v>320</v>
-      </c>
-      <c r="M3" t="s">
-        <v>212</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -5959,17 +5977,41 @@
       <c r="C4" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D4" t="s">
-        <v>292</v>
+      <c r="D4" s="38" t="s">
+        <v>312</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>205</v>
+      </c>
       <c r="J4" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="K4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L4" t="s">
+        <v>339</v>
       </c>
       <c r="M4" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -5982,17 +6024,41 @@
       <c r="C5" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D5" t="s">
-        <v>292</v>
+      <c r="D5" s="38" t="s">
+        <v>312</v>
       </c>
       <c r="E5">
         <v>50</v>
       </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>205</v>
+      </c>
       <c r="J5" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="K5" t="s">
+        <v>338</v>
+      </c>
+      <c r="L5" t="s">
+        <v>340</v>
       </c>
       <c r="M5" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -6006,7 +6072,7 @@
         <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -6021,25 +6087,25 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N6" t="s">
+        <v>331</v>
+      </c>
+      <c r="O6" t="s">
         <v>333</v>
-      </c>
-      <c r="O6" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -6053,7 +6119,7 @@
         <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -6068,25 +6134,25 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N7" t="s">
+        <v>332</v>
+      </c>
+      <c r="O7" t="s">
         <v>334</v>
-      </c>
-      <c r="O7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -6100,7 +6166,7 @@
         <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -6115,25 +6181,25 @@
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K8" t="s">
+        <v>322</v>
+      </c>
+      <c r="L8" t="s">
+        <v>267</v>
+      </c>
+      <c r="M8" t="s">
+        <v>211</v>
+      </c>
+      <c r="N8" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="L8" t="s">
-        <v>268</v>
-      </c>
-      <c r="M8" t="s">
-        <v>212</v>
-      </c>
-      <c r="N8" s="23" t="s">
+      <c r="O8" s="23" t="s">
         <v>326</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -6147,7 +6213,7 @@
         <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -6162,25 +6228,25 @@
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K9" t="s">
+        <v>323</v>
+      </c>
+      <c r="L9" t="s">
+        <v>335</v>
+      </c>
+      <c r="M9" t="s">
+        <v>211</v>
+      </c>
+      <c r="N9" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="L9" t="s">
-        <v>337</v>
-      </c>
-      <c r="M9" t="s">
-        <v>212</v>
-      </c>
-      <c r="N9" s="23" t="s">
+      <c r="O9" s="23" t="s">
         <v>327</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -6195,13 +6261,13 @@
       <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="C15" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
@@ -6216,13 +6282,13 @@
       <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="C19" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Github repositories/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF639F10-B660-0248-8AE2-FFBE1CF420A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C05D8A-41E5-064C-94FA-86F9328FB770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="460" windowWidth="21360" windowHeight="15720" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="460" windowWidth="21360" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="346">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1029,18 +1029,6 @@
     <t>test_userstory32()</t>
   </si>
   <si>
-    <t>971-993</t>
-  </si>
-  <si>
-    <t>999-1019</t>
-  </si>
-  <si>
-    <t>135-138</t>
-  </si>
-  <si>
-    <t>140-144</t>
-  </si>
-  <si>
     <t>commit without discussing</t>
   </si>
   <si>
@@ -1056,12 +1044,6 @@
     <t>test_userstory26()</t>
   </si>
   <si>
-    <t>150-153</t>
-  </si>
-  <si>
-    <t>155-158</t>
-  </si>
-  <si>
     <t>us28()</t>
   </si>
   <si>
@@ -1077,15 +1059,6 @@
     <t>test_userstory28()</t>
   </si>
   <si>
-    <t>36-38</t>
-  </si>
-  <si>
-    <t>40-42</t>
-  </si>
-  <si>
-    <t>667-696</t>
-  </si>
-  <si>
     <t xml:space="preserve">us27() </t>
   </si>
   <si>
@@ -1095,22 +1068,52 @@
     <t>US30()</t>
   </si>
   <si>
-    <t>886-899</t>
-  </si>
-  <si>
-    <t>905-923</t>
-  </si>
-  <si>
     <t>test_userstory29()</t>
   </si>
   <si>
     <t>test_userstory30()</t>
   </si>
   <si>
-    <t>103-112</t>
-  </si>
-  <si>
-    <t>114-126</t>
+    <t>917-944</t>
+  </si>
+  <si>
+    <t>116-119</t>
+  </si>
+  <si>
+    <t>105-114</t>
+  </si>
+  <si>
+    <t>36-39</t>
+  </si>
+  <si>
+    <t>41-44</t>
+  </si>
+  <si>
+    <t>151-154</t>
+  </si>
+  <si>
+    <t>156-159</t>
+  </si>
+  <si>
+    <t>171-174</t>
+  </si>
+  <si>
+    <t>176-179</t>
+  </si>
+  <si>
+    <t>1178-1196</t>
+  </si>
+  <si>
+    <t>1202-1222</t>
+  </si>
+  <si>
+    <t>898-911</t>
+  </si>
+  <si>
+    <t>641-671</t>
+  </si>
+  <si>
+    <t>676-731</t>
   </si>
 </sst>
 </file>
@@ -3394,7 +3397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -5813,8 +5816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:G19"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5908,7 +5911,7 @@
         <v>313</v>
       </c>
       <c r="L2" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="M2" t="s">
         <v>211</v>
@@ -5917,7 +5920,7 @@
         <v>315</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -5955,7 +5958,7 @@
         <v>314</v>
       </c>
       <c r="L3" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="M3" t="s">
         <v>211</v>
@@ -5964,7 +5967,7 @@
         <v>316</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -5999,19 +6002,19 @@
         <v>240</v>
       </c>
       <c r="K4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="L4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M4" t="s">
         <v>211</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -6034,10 +6037,10 @@
         <v>50</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>205</v>
@@ -6046,19 +6049,19 @@
         <v>240</v>
       </c>
       <c r="K5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M5" t="s">
         <v>211</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -6093,19 +6096,19 @@
         <v>240</v>
       </c>
       <c r="K6" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="L6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M6" t="s">
         <v>211</v>
       </c>
       <c r="N6" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="O6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -6140,19 +6143,19 @@
         <v>240</v>
       </c>
       <c r="K7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M7" t="s">
         <v>211</v>
       </c>
       <c r="N7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="O7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -6187,19 +6190,19 @@
         <v>240</v>
       </c>
       <c r="K8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L8" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="M8" t="s">
         <v>211</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -6234,19 +6237,19 @@
         <v>240</v>
       </c>
       <c r="K9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L9" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="M9" t="s">
         <v>211</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -6283,7 +6286,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>

--- a/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint4/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Github repositories/CS-555-Agile_Project_Team/Sprint4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C05D8A-41E5-064C-94FA-86F9328FB770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BA5D19-F98B-DC40-A231-3D6E02C6431C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="460" windowWidth="21360" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -3265,7 +3263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3397,7 +3395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="111" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -4199,7 +4197,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4336,8 +4334,15 @@
       <c r="D6">
         <v>8</v>
       </c>
+      <c r="E6">
+        <v>1223</v>
+      </c>
       <c r="F6" s="35">
         <v>180</v>
+      </c>
+      <c r="G6" s="36">
+        <f>(E6-E5)/F6*60</f>
+        <v>85.666666666666671</v>
       </c>
     </row>
   </sheetData>
@@ -5816,7 +5821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
